--- a/cadasta/questionnaires/tests/files/xls-form-attrs.xlsx
+++ b/cadasta/questionnaires/tests/files/xls-form-attrs.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
@@ -436,6 +436,12 @@
   </si>
   <si>
     <t>Individual</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Coporation</t>
   </si>
   <si>
     <t>yes_no</t>
@@ -637,7 +643,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -662,6 +668,11 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="5">
@@ -690,7 +701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -827,6 +838,46 @@
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
@@ -837,7 +888,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -925,6 +976,30 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
@@ -946,7 +1021,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -4385,13 +4460,13 @@
       <c r="Z14" s="9"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" t="s" s="25">
+      <c r="A15" t="s" s="28">
         <v>111</v>
       </c>
-      <c r="B15" t="s" s="26">
+      <c r="B15" t="s" s="29">
         <v>114</v>
       </c>
-      <c r="C15" t="s" s="27">
+      <c r="C15" t="s" s="30">
         <v>115</v>
       </c>
       <c r="D15" s="24"/>
@@ -4419,10 +4494,16 @@
       <c r="Z15" s="9"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="A16" t="s" s="31">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="31">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s" s="31">
+        <v>117</v>
+      </c>
+      <c r="D16" s="32"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -4447,14 +4528,14 @@
       <c r="Z16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" t="s" s="25">
-        <v>116</v>
-      </c>
-      <c r="B17" t="s" s="26">
+      <c r="A17" t="s" s="33">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s" s="34">
         <v>22</v>
       </c>
-      <c r="C17" t="s" s="27">
-        <v>117</v>
+      <c r="C17" t="s" s="35">
+        <v>119</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -4482,13 +4563,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="s" s="25">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s" s="26">
         <v>77</v>
       </c>
       <c r="C18" t="s" s="27">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -4547,10 +4628,10 @@
         <v>49</v>
       </c>
       <c r="B20" t="s" s="26">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s" s="27">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -4581,10 +4662,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s" s="26">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s" s="27">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -4615,10 +4696,10 @@
         <v>49</v>
       </c>
       <c r="B22" t="s" s="26">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s" s="27">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -4649,10 +4730,10 @@
         <v>49</v>
       </c>
       <c r="B23" t="s" s="26">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s" s="27">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
@@ -4683,10 +4764,10 @@
         <v>49</v>
       </c>
       <c r="B24" t="s" s="26">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s" s="27">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -4773,10 +4854,10 @@
         <v>46</v>
       </c>
       <c r="B27" t="s" s="26">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s" s="27">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -4807,10 +4888,10 @@
         <v>46</v>
       </c>
       <c r="B28" t="s" s="26">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s" s="27">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -4841,10 +4922,10 @@
         <v>46</v>
       </c>
       <c r="B29" t="s" s="26">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s" s="27">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -4875,10 +4956,10 @@
         <v>46</v>
       </c>
       <c r="B30" t="s" s="26">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C30" t="s" s="27">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -4909,10 +4990,10 @@
         <v>46</v>
       </c>
       <c r="B31" t="s" s="26">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s" s="27">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -4943,10 +5024,10 @@
         <v>46</v>
       </c>
       <c r="B32" t="s" s="26">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s" s="27">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -4977,10 +5058,10 @@
         <v>46</v>
       </c>
       <c r="B33" t="s" s="26">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s" s="27">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -5011,10 +5092,10 @@
         <v>46</v>
       </c>
       <c r="B34" t="s" s="26">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s" s="27">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -5045,10 +5126,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s" s="26">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s" s="27">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -5079,10 +5160,10 @@
         <v>46</v>
       </c>
       <c r="B36" t="s" s="26">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s" s="27">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -5113,10 +5194,10 @@
         <v>46</v>
       </c>
       <c r="B37" t="s" s="26">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s" s="27">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -5147,10 +5228,10 @@
         <v>46</v>
       </c>
       <c r="B38" t="s" s="26">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s" s="27">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -5181,10 +5262,10 @@
         <v>46</v>
       </c>
       <c r="B39" t="s" s="26">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s" s="27">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -5215,10 +5296,10 @@
         <v>46</v>
       </c>
       <c r="B40" t="s" s="26">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s" s="27">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -5249,10 +5330,10 @@
         <v>46</v>
       </c>
       <c r="B41" t="s" s="26">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s" s="27">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -5283,10 +5364,10 @@
         <v>46</v>
       </c>
       <c r="B42" t="s" s="26">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s" s="27">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
@@ -5317,10 +5398,10 @@
         <v>46</v>
       </c>
       <c r="B43" t="s" s="26">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s" s="27">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -5351,10 +5432,10 @@
         <v>46</v>
       </c>
       <c r="B44" t="s" s="26">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s" s="27">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -5410,13 +5491,13 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" t="s" s="25">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s" s="26">
         <v>60</v>
       </c>
       <c r="C46" t="s" s="27">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
@@ -5444,13 +5525,13 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" t="s" s="25">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s" s="26">
         <v>23</v>
       </c>
       <c r="C47" t="s" s="27">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -5478,13 +5559,13 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" t="s" s="25">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B48" t="s" s="26">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s" s="27">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -5512,13 +5593,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="s" s="25">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s" s="26">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s" s="27">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
@@ -5546,13 +5627,13 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="s" s="25">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s" s="26">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C50" t="s" s="27">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D50" s="24"/>
       <c r="E50" s="24"/>
@@ -5608,13 +5689,13 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s" s="25">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B52" t="s" s="26">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C52" t="s" s="27">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
@@ -5641,20 +5722,20 @@
       <c r="Z52" s="9"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" t="s" s="28">
-        <v>174</v>
-      </c>
-      <c r="B53" t="s" s="29">
+      <c r="A53" t="s" s="36">
+        <v>176</v>
+      </c>
+      <c r="B53" t="s" s="37">
         <v>72</v>
       </c>
-      <c r="C53" t="s" s="30">
-        <v>177</v>
-      </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
+      <c r="C53" t="s" s="38">
+        <v>179</v>
+      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
@@ -5691,38 +5772,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23" style="32" customWidth="1"/>
-    <col min="2" max="2" width="21" style="32" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="32" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="32" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="32" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="32" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="32" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="32" customWidth="1"/>
-    <col min="17" max="17" width="13.5" style="32" customWidth="1"/>
-    <col min="18" max="18" width="13.5" style="32" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="32" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="32" customWidth="1"/>
-    <col min="21" max="21" width="13.5" style="32" customWidth="1"/>
-    <col min="22" max="22" width="13.5" style="32" customWidth="1"/>
-    <col min="23" max="23" width="13.5" style="32" customWidth="1"/>
-    <col min="24" max="24" width="13.5" style="32" customWidth="1"/>
-    <col min="25" max="25" width="13.5" style="32" customWidth="1"/>
-    <col min="26" max="26" width="13.5" style="32" customWidth="1"/>
-    <col min="27" max="256" width="8.625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="23" style="40" customWidth="1"/>
+    <col min="2" max="2" width="21" style="40" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="40" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="40" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="40" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="40" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="40" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="40" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="40" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="40" customWidth="1"/>
+    <col min="19" max="19" width="13.5" style="40" customWidth="1"/>
+    <col min="20" max="20" width="13.5" style="40" customWidth="1"/>
+    <col min="21" max="21" width="13.5" style="40" customWidth="1"/>
+    <col min="22" max="22" width="13.5" style="40" customWidth="1"/>
+    <col min="23" max="23" width="13.5" style="40" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="40" customWidth="1"/>
+    <col min="25" max="25" width="13.5" style="40" customWidth="1"/>
+    <col min="26" max="26" width="13.5" style="40" customWidth="1"/>
+    <col min="27" max="256" width="8.625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
       <c r="A1" t="s" s="18">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s" s="20">
         <v>14</v>
@@ -5754,10 +5835,10 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s" s="25">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s" s="27">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -5785,228 +5866,228 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="35"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="43"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="35"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="43"/>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="35"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="43"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="35"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="43"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="35"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="43"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="35"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="43"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="35"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="43"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="38"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
